--- a/datos.xlsx
+++ b/datos.xlsx
@@ -1868,10 +1868,10 @@
   <dimension ref="A1:K134"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E2:E149 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.57"/>
@@ -2977,11 +2977,11 @@
   </sheetPr>
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A82" activeCellId="1" sqref="E2:E149 A82"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C69" activeCellId="0" sqref="C69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.14"/>
@@ -3936,10 +3936,10 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E2:E149 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.43"/>
@@ -4334,10 +4334,10 @@
   <dimension ref="A1:K150"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E149"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.29"/>
@@ -4378,7 +4378,7 @@
         <v>101</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>102</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6459,10 +6459,10 @@
   <dimension ref="A1:K147"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E2:E149 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.29"/>
@@ -8555,10 +8555,10 @@
   <dimension ref="A1:K110"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E2:E149 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.71"/>
